--- a/Code/Results/Cases/Case_2_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011992689330925</v>
+        <v>1.032216756921222</v>
       </c>
       <c r="D2">
-        <v>1.031776177205727</v>
+        <v>1.04172802326125</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.032166818540724</v>
+        <v>1.04847691712512</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051591603954647</v>
+        <v>1.03918694123222</v>
       </c>
       <c r="J2">
-        <v>1.033820523710749</v>
+        <v>1.037348195029395</v>
       </c>
       <c r="K2">
-        <v>1.042809882021286</v>
+        <v>1.044506717983078</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.043195494854834</v>
+        <v>1.051236653996602</v>
       </c>
       <c r="N2">
-        <v>1.015219082385176</v>
+        <v>1.016451021790868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015665860343827</v>
+        <v>1.032985459442123</v>
       </c>
       <c r="D3">
-        <v>1.034658435184642</v>
+        <v>1.0423530425619</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.035693474598184</v>
+        <v>1.049273136818667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052770443312202</v>
+        <v>1.039373553703993</v>
       </c>
       <c r="J3">
-        <v>1.035738381255078</v>
+        <v>1.037760018603715</v>
       </c>
       <c r="K3">
-        <v>1.044866258465027</v>
+        <v>1.044942911453265</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.045889145583162</v>
+        <v>1.051844967814591</v>
       </c>
       <c r="N3">
-        <v>1.015852609208422</v>
+        <v>1.016586978700824</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017998296499115</v>
+        <v>1.033483271598796</v>
       </c>
       <c r="D4">
-        <v>1.036490499473029</v>
+        <v>1.042757773018692</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.037937648387535</v>
+        <v>1.049789130125921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053508511187487</v>
+        <v>1.039493119296797</v>
       </c>
       <c r="J4">
-        <v>1.036952546374421</v>
+        <v>1.038026217972375</v>
       </c>
       <c r="K4">
-        <v>1.046167594545654</v>
+        <v>1.04522476727446</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.047598785117677</v>
+        <v>1.052238716491283</v>
       </c>
       <c r="N4">
-        <v>1.01625370676756</v>
+        <v>1.016674853366786</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018968540834336</v>
+        <v>1.033692648246817</v>
       </c>
       <c r="D5">
-        <v>1.037253009514161</v>
+        <v>1.042927991913399</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.038872299718066</v>
+        <v>1.050006239794316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053812980413335</v>
+        <v>1.039543100079034</v>
       </c>
       <c r="J5">
-        <v>1.037456711019834</v>
+        <v>1.038138060363752</v>
       </c>
       <c r="K5">
-        <v>1.046707824284975</v>
+        <v>1.045343164556911</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.048309736564074</v>
+        <v>1.052404277575049</v>
       </c>
       <c r="N5">
-        <v>1.016420261162642</v>
+        <v>1.016711771849516</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019130853092687</v>
+        <v>1.033727809109207</v>
       </c>
       <c r="D6">
-        <v>1.03738059299001</v>
+        <v>1.042956576476938</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.03902872293357</v>
+        <v>1.050042704314679</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053863764094406</v>
+        <v>1.039551475358495</v>
       </c>
       <c r="J6">
-        <v>1.037540999017984</v>
+        <v>1.038156835179421</v>
       </c>
       <c r="K6">
-        <v>1.046798133875683</v>
+        <v>1.04536303837522</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.048428657787919</v>
+        <v>1.052432077667872</v>
       </c>
       <c r="N6">
-        <v>1.0164481065389</v>
+        <v>1.016717969203615</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018011301073183</v>
+        <v>1.033486068923203</v>
       </c>
       <c r="D7">
-        <v>1.036500718127328</v>
+        <v>1.042760047218394</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.037950171492251</v>
+        <v>1.049792030427362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053512602232765</v>
+        <v>1.039493788261791</v>
       </c>
       <c r="J7">
-        <v>1.036959307491061</v>
+        <v>1.038027712683968</v>
       </c>
       <c r="K7">
-        <v>1.046174839841406</v>
+        <v>1.045226349679428</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.047608315201447</v>
+        <v>1.052240928614264</v>
       </c>
       <c r="N7">
-        <v>1.01625594033455</v>
+        <v>1.016675346768315</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013243426225669</v>
+        <v>1.032476457520828</v>
       </c>
       <c r="D8">
-        <v>1.03275719420978</v>
+        <v>1.041939187963913</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.033366652045635</v>
+        <v>1.048745839324092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051995180494723</v>
+        <v>1.039250252665192</v>
       </c>
       <c r="J8">
-        <v>1.034474317445679</v>
+        <v>1.037487429541139</v>
       </c>
       <c r="K8">
-        <v>1.043511002754839</v>
+        <v>1.044654211619611</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.044112850869155</v>
+        <v>1.051442208756227</v>
       </c>
       <c r="N8">
-        <v>1.015435045300787</v>
+        <v>1.01649698920857</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004487735036417</v>
+        <v>1.030700614233123</v>
       </c>
       <c r="D9">
-        <v>1.025898948194578</v>
+        <v>1.040495119219241</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.024988490038189</v>
+        <v>1.046908427608256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04912707375402</v>
+        <v>1.038812073161144</v>
       </c>
       <c r="J9">
-        <v>1.029883009064087</v>
+        <v>1.036533308127107</v>
       </c>
       <c r="K9">
-        <v>1.038585357184355</v>
+        <v>1.043643102730884</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.037688750740665</v>
+        <v>1.050035826544869</v>
       </c>
       <c r="N9">
-        <v>1.013918558955271</v>
+        <v>1.016181964847942</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9983913388514242</v>
+        <v>1.029518990931195</v>
       </c>
       <c r="D10">
-        <v>1.021137156416799</v>
+        <v>1.039534126375553</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.019183010277989</v>
+        <v>1.04568771828459</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047077209658803</v>
+        <v>1.038513927855138</v>
       </c>
       <c r="J10">
-        <v>1.026668926949484</v>
+        <v>1.035895908318901</v>
       </c>
       <c r="K10">
-        <v>1.035134979875794</v>
+        <v>1.042967145273208</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.033214337263111</v>
+        <v>1.049099057154073</v>
       </c>
       <c r="N10">
-        <v>1.012857162288122</v>
+        <v>1.015971479928228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9956849851443451</v>
+        <v>1.029007896380642</v>
       </c>
       <c r="D11">
-        <v>1.019027019670582</v>
+        <v>1.039118437542875</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.016612856181138</v>
+        <v>1.045160167451464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046155190322012</v>
+        <v>1.038383409265197</v>
       </c>
       <c r="J11">
-        <v>1.025238382111494</v>
+        <v>1.035619610200851</v>
       </c>
       <c r="K11">
-        <v>1.033598818590358</v>
+        <v>1.042674018899217</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.031228134458319</v>
+        <v>1.0486936416431</v>
       </c>
       <c r="N11">
-        <v>1.012384808015609</v>
+        <v>1.015880231921481</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9946692641997438</v>
+        <v>1.028818138465566</v>
       </c>
       <c r="D12">
-        <v>1.018235677581499</v>
+        <v>1.038964098341674</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.015649347978368</v>
+        <v>1.044964367591444</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045807384127691</v>
+        <v>1.038334716408619</v>
       </c>
       <c r="J12">
-        <v>1.024700956426406</v>
+        <v>1.035516937008945</v>
       </c>
       <c r="K12">
-        <v>1.033021655911416</v>
+        <v>1.042565075182442</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.030482749596865</v>
+        <v>1.048543085850918</v>
       </c>
       <c r="N12">
-        <v>1.012207364326901</v>
+        <v>1.015846322764163</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.994887620818785</v>
+        <v>1.028858838290924</v>
       </c>
       <c r="D13">
-        <v>1.018405769406333</v>
+        <v>1.038997201600401</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.015856429950308</v>
+        <v>1.045006360232507</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045882233419621</v>
+        <v>1.038345170791338</v>
       </c>
       <c r="J13">
-        <v>1.024816513927548</v>
+        <v>1.035538962717359</v>
       </c>
       <c r="K13">
-        <v>1.033145760222979</v>
+        <v>1.042588446831545</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.030642986973669</v>
+        <v>1.048575379031683</v>
       </c>
       <c r="N13">
-        <v>1.012245517881117</v>
+        <v>1.015853597091739</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.995601241475309</v>
+        <v>1.028992209180486</v>
       </c>
       <c r="D14">
-        <v>1.018961762728408</v>
+        <v>1.039105678456003</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.016533394829498</v>
+        <v>1.045143979379235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046126550164249</v>
+        <v>1.038379388627276</v>
       </c>
       <c r="J14">
-        <v>1.025194083253852</v>
+        <v>1.035611124088297</v>
       </c>
       <c r="K14">
-        <v>1.033551245453224</v>
+        <v>1.042665014865374</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.031166677944658</v>
+        <v>1.048681195959187</v>
       </c>
       <c r="N14">
-        <v>1.012370181502103</v>
+        <v>1.015877429295355</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9960395264028551</v>
+        <v>1.029074394752004</v>
       </c>
       <c r="D15">
-        <v>1.019303319916786</v>
+        <v>1.039172523448632</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.016949312517308</v>
+        <v>1.045228791813259</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046276371032379</v>
+        <v>1.038400443240382</v>
       </c>
       <c r="J15">
-        <v>1.02542590655104</v>
+        <v>1.035655579328804</v>
       </c>
       <c r="K15">
-        <v>1.033800201236616</v>
+        <v>1.042712182582272</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.031488322277944</v>
+        <v>1.048746397762761</v>
       </c>
       <c r="N15">
-        <v>1.012446724892131</v>
+        <v>1.01589211105051</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9985695094473082</v>
+        <v>1.029552922464434</v>
       </c>
       <c r="D16">
-        <v>1.021276157920502</v>
+        <v>1.039561723443904</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.019352364434492</v>
+        <v>1.045722751858204</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047137662794009</v>
+        <v>1.038522560105412</v>
       </c>
       <c r="J16">
-        <v>1.02676303060952</v>
+        <v>1.035914239107319</v>
       </c>
       <c r="K16">
-        <v>1.035236022542412</v>
+        <v>1.042986590118016</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.033345102938419</v>
+        <v>1.049125967859071</v>
       </c>
       <c r="N16">
-        <v>1.012888235869835</v>
+        <v>1.015977533548364</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000138361671203</v>
+        <v>1.029853240423146</v>
       </c>
       <c r="D17">
-        <v>1.022500546528816</v>
+        <v>1.039805974109423</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.020844393435857</v>
+        <v>1.046032875684806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0476686067343</v>
+        <v>1.038598781295807</v>
       </c>
       <c r="J17">
-        <v>1.027591223882357</v>
+        <v>1.036076410187602</v>
       </c>
       <c r="K17">
-        <v>1.036125235341228</v>
+        <v>1.043158603972701</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.034496556051119</v>
+        <v>1.049364120102594</v>
       </c>
       <c r="N17">
-        <v>1.013161717017095</v>
+        <v>1.016031088581152</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001047055562373</v>
+        <v>1.030028464345627</v>
       </c>
       <c r="D18">
-        <v>1.023210077035966</v>
+        <v>1.039948482500179</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.021709258721661</v>
+        <v>1.046213864360469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047974987893044</v>
+        <v>1.038643102788402</v>
       </c>
       <c r="J18">
-        <v>1.02807056467544</v>
+        <v>1.036170972823939</v>
       </c>
       <c r="K18">
-        <v>1.036639850227404</v>
+        <v>1.043258894934585</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.035163496148636</v>
+        <v>1.049503050596626</v>
       </c>
       <c r="N18">
-        <v>1.01332000768273</v>
+        <v>1.016062316006443</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001355826155962</v>
+        <v>1.030088220201107</v>
       </c>
       <c r="D19">
-        <v>1.023451231159951</v>
+        <v>1.039997081092975</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.022003248814272</v>
+        <v>1.046275593497759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048078899220806</v>
+        <v>1.038658192001982</v>
       </c>
       <c r="J19">
-        <v>1.028233381376535</v>
+        <v>1.036203211279704</v>
       </c>
       <c r="K19">
-        <v>1.03681464093484</v>
+        <v>1.043293084425921</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.035390119889597</v>
+        <v>1.049550425697884</v>
       </c>
       <c r="N19">
-        <v>1.013373774858261</v>
+        <v>1.016072961987823</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9999707029640129</v>
+        <v>1.029821013597635</v>
       </c>
       <c r="D20">
-        <v>1.02236966267902</v>
+        <v>1.039779764058482</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.020684875059723</v>
+        <v>1.045999592109534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047611984891526</v>
+        <v>1.038590617651771</v>
       </c>
       <c r="J20">
-        <v>1.027502754009517</v>
+        <v>1.03605901375703</v>
       </c>
       <c r="K20">
-        <v>1.036030251573637</v>
+        <v>1.043140152828277</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.034373502504893</v>
+        <v>1.049338566506286</v>
       </c>
       <c r="N20">
-        <v>1.013132502429458</v>
+        <v>1.016025343697183</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9953913905629048</v>
+        <v>1.028952932406918</v>
       </c>
       <c r="D21">
-        <v>1.018798247232875</v>
+        <v>1.039073732884513</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.016334292637727</v>
+        <v>1.045103449647057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046054753332714</v>
+        <v>1.038369318185002</v>
       </c>
       <c r="J21">
-        <v>1.025083067585877</v>
+        <v>1.035589875561152</v>
       </c>
       <c r="K21">
-        <v>1.033432023313268</v>
+        <v>1.042642469230139</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.031012676838071</v>
+        <v>1.048650034570395</v>
       </c>
       <c r="N21">
-        <v>1.012333526720623</v>
+        <v>1.015870411732097</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9924514259116435</v>
+        <v>1.02840763005354</v>
       </c>
       <c r="D22">
-        <v>1.01650895525262</v>
+        <v>1.038630206677987</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.013547571367948</v>
+        <v>1.044540912973241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045044754410078</v>
+        <v>1.038228949731917</v>
       </c>
       <c r="J22">
-        <v>1.023526546404518</v>
+        <v>1.035294657153773</v>
       </c>
       <c r="K22">
-        <v>1.031760310590019</v>
+        <v>1.042329188936922</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.028855342305119</v>
+        <v>1.048217322364259</v>
       </c>
       <c r="N22">
-        <v>1.011819624652909</v>
+        <v>1.015772909903769</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9940158772611249</v>
+        <v>1.028696657649901</v>
       </c>
       <c r="D23">
-        <v>1.017726806731476</v>
+        <v>1.038865291307537</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.01502986149248</v>
+        <v>1.044839037947168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045583158187606</v>
+        <v>1.038303477885723</v>
       </c>
       <c r="J23">
-        <v>1.024355099635559</v>
+        <v>1.035451181536786</v>
       </c>
       <c r="K23">
-        <v>1.032650210961938</v>
+        <v>1.042495299047374</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.030003283871692</v>
+        <v>1.04844669220804</v>
       </c>
       <c r="N23">
-        <v>1.012093174516836</v>
+        <v>1.015824605848244</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000046480434363</v>
+        <v>1.029835575347697</v>
       </c>
       <c r="D24">
-        <v>1.022428817758519</v>
+        <v>1.039791607125531</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.020756971239439</v>
+        <v>1.046014631219848</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047637580080939</v>
+        <v>1.03859430687464</v>
       </c>
       <c r="J24">
-        <v>1.027542741248696</v>
+        <v>1.036066874544985</v>
       </c>
       <c r="K24">
-        <v>1.036073183142096</v>
+        <v>1.043148490235586</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.034429119556491</v>
+        <v>1.049350113013957</v>
       </c>
       <c r="N24">
-        <v>1.013145707028392</v>
+        <v>1.016027939594903</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006795363764376</v>
+        <v>1.031159319599789</v>
       </c>
       <c r="D25">
-        <v>1.027704344791657</v>
+        <v>1.040868150736175</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.027191898943639</v>
+        <v>1.047382705712767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049892281476014</v>
+        <v>1.038926418893279</v>
       </c>
       <c r="J25">
-        <v>1.031096181165264</v>
+        <v>1.03678020934378</v>
       </c>
       <c r="K25">
-        <v>1.039887287537734</v>
+        <v>1.043904836985776</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.039382266936624</v>
+        <v>1.050399273295888</v>
       </c>
       <c r="N25">
-        <v>1.014319233358351</v>
+        <v>1.016263490695101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032216756921222</v>
+        <v>1.011992689330925</v>
       </c>
       <c r="D2">
-        <v>1.04172802326125</v>
+        <v>1.031776177205727</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.04847691712512</v>
+        <v>1.032166818540725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03918694123222</v>
+        <v>1.051591603954647</v>
       </c>
       <c r="J2">
-        <v>1.037348195029395</v>
+        <v>1.033820523710749</v>
       </c>
       <c r="K2">
-        <v>1.044506717983078</v>
+        <v>1.042809882021286</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.051236653996602</v>
+        <v>1.043195494854835</v>
       </c>
       <c r="N2">
-        <v>1.016451021790868</v>
+        <v>1.015219082385177</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032985459442123</v>
+        <v>1.015665860343827</v>
       </c>
       <c r="D3">
-        <v>1.0423530425619</v>
+        <v>1.034658435184642</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.049273136818667</v>
+        <v>1.035693474598183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039373553703993</v>
+        <v>1.052770443312202</v>
       </c>
       <c r="J3">
-        <v>1.037760018603715</v>
+        <v>1.035738381255078</v>
       </c>
       <c r="K3">
-        <v>1.044942911453265</v>
+        <v>1.044866258465027</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.051844967814591</v>
+        <v>1.045889145583161</v>
       </c>
       <c r="N3">
-        <v>1.016586978700824</v>
+        <v>1.015852609208422</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033483271598796</v>
+        <v>1.017998296499114</v>
       </c>
       <c r="D4">
-        <v>1.042757773018692</v>
+        <v>1.036490499473028</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.049789130125921</v>
+        <v>1.037937648387536</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039493119296797</v>
+        <v>1.053508511187487</v>
       </c>
       <c r="J4">
-        <v>1.038026217972375</v>
+        <v>1.036952546374421</v>
       </c>
       <c r="K4">
-        <v>1.04522476727446</v>
+        <v>1.046167594545654</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.052238716491283</v>
+        <v>1.047598785117677</v>
       </c>
       <c r="N4">
-        <v>1.016674853366786</v>
+        <v>1.016253706767559</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033692648246817</v>
+        <v>1.018968540834336</v>
       </c>
       <c r="D5">
-        <v>1.042927991913399</v>
+        <v>1.037253009514162</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.050006239794316</v>
+        <v>1.038872299718067</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039543100079034</v>
+        <v>1.053812980413335</v>
       </c>
       <c r="J5">
-        <v>1.038138060363752</v>
+        <v>1.037456711019834</v>
       </c>
       <c r="K5">
-        <v>1.045343164556911</v>
+        <v>1.046707824284976</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.052404277575049</v>
+        <v>1.048309736564075</v>
       </c>
       <c r="N5">
-        <v>1.016711771849516</v>
+        <v>1.016420261162642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033727809109207</v>
+        <v>1.019130853092686</v>
       </c>
       <c r="D6">
-        <v>1.042956576476938</v>
+        <v>1.03738059299001</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.050042704314679</v>
+        <v>1.03902872293357</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039551475358495</v>
+        <v>1.053863764094406</v>
       </c>
       <c r="J6">
-        <v>1.038156835179421</v>
+        <v>1.037540999017984</v>
       </c>
       <c r="K6">
-        <v>1.04536303837522</v>
+        <v>1.046798133875683</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.052432077667872</v>
+        <v>1.048428657787919</v>
       </c>
       <c r="N6">
-        <v>1.016717969203615</v>
+        <v>1.016448106538899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033486068923203</v>
+        <v>1.018011301073183</v>
       </c>
       <c r="D7">
-        <v>1.042760047218394</v>
+        <v>1.036500718127327</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.049792030427362</v>
+        <v>1.037950171492251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039493788261791</v>
+        <v>1.053512602232765</v>
       </c>
       <c r="J7">
-        <v>1.038027712683968</v>
+        <v>1.036959307491061</v>
       </c>
       <c r="K7">
-        <v>1.045226349679428</v>
+        <v>1.046174839841405</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.052240928614264</v>
+        <v>1.047608315201446</v>
       </c>
       <c r="N7">
-        <v>1.016675346768315</v>
+        <v>1.01625594033455</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032476457520828</v>
+        <v>1.013243426225669</v>
       </c>
       <c r="D8">
-        <v>1.041939187963913</v>
+        <v>1.03275719420978</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.048745839324092</v>
+        <v>1.033366652045635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039250252665192</v>
+        <v>1.051995180494722</v>
       </c>
       <c r="J8">
-        <v>1.037487429541139</v>
+        <v>1.034474317445678</v>
       </c>
       <c r="K8">
-        <v>1.044654211619611</v>
+        <v>1.043511002754838</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.051442208756227</v>
+        <v>1.044112850869154</v>
       </c>
       <c r="N8">
-        <v>1.01649698920857</v>
+        <v>1.015435045300787</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030700614233123</v>
+        <v>1.004487735036417</v>
       </c>
       <c r="D9">
-        <v>1.040495119219241</v>
+        <v>1.025898948194578</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.046908427608256</v>
+        <v>1.02498849003819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038812073161144</v>
+        <v>1.04912707375402</v>
       </c>
       <c r="J9">
-        <v>1.036533308127107</v>
+        <v>1.029883009064087</v>
       </c>
       <c r="K9">
-        <v>1.043643102730884</v>
+        <v>1.038585357184356</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.050035826544869</v>
+        <v>1.037688750740665</v>
       </c>
       <c r="N9">
-        <v>1.016181964847942</v>
+        <v>1.013918558955271</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029518990931195</v>
+        <v>0.9983913388514233</v>
       </c>
       <c r="D10">
-        <v>1.039534126375553</v>
+        <v>1.021137156416798</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.04568771828459</v>
+        <v>1.019183010277988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038513927855138</v>
+        <v>1.047077209658802</v>
       </c>
       <c r="J10">
-        <v>1.035895908318901</v>
+        <v>1.026668926949483</v>
       </c>
       <c r="K10">
-        <v>1.042967145273208</v>
+        <v>1.035134979875793</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.049099057154073</v>
+        <v>1.033214337263111</v>
       </c>
       <c r="N10">
-        <v>1.015971479928228</v>
+        <v>1.012857162288122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029007896380642</v>
+        <v>0.9956849851443452</v>
       </c>
       <c r="D11">
-        <v>1.039118437542875</v>
+        <v>1.019027019670583</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.045160167451464</v>
+        <v>1.016612856181138</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038383409265197</v>
+        <v>1.046155190322012</v>
       </c>
       <c r="J11">
-        <v>1.035619610200851</v>
+        <v>1.025238382111495</v>
       </c>
       <c r="K11">
-        <v>1.042674018899217</v>
+        <v>1.033598818590358</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.0486936416431</v>
+        <v>1.031228134458319</v>
       </c>
       <c r="N11">
-        <v>1.015880231921481</v>
+        <v>1.012384808015609</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028818138465566</v>
+        <v>0.9946692641997437</v>
       </c>
       <c r="D12">
-        <v>1.038964098341674</v>
+        <v>1.018235677581499</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.044964367591444</v>
+        <v>1.015649347978368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038334716408619</v>
+        <v>1.045807384127691</v>
       </c>
       <c r="J12">
-        <v>1.035516937008945</v>
+        <v>1.024700956426406</v>
       </c>
       <c r="K12">
-        <v>1.042565075182442</v>
+        <v>1.033021655911416</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.048543085850918</v>
+        <v>1.030482749596865</v>
       </c>
       <c r="N12">
-        <v>1.015846322764163</v>
+        <v>1.012207364326901</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028858838290924</v>
+        <v>0.9948876208187862</v>
       </c>
       <c r="D13">
-        <v>1.038997201600401</v>
+        <v>1.018405769406335</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.045006360232507</v>
+        <v>1.015856429950309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038345170791338</v>
+        <v>1.045882233419622</v>
       </c>
       <c r="J13">
-        <v>1.035538962717359</v>
+        <v>1.024816513927549</v>
       </c>
       <c r="K13">
-        <v>1.042588446831545</v>
+        <v>1.033145760222981</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.048575379031683</v>
+        <v>1.030642986973671</v>
       </c>
       <c r="N13">
-        <v>1.015853597091739</v>
+        <v>1.012245517881118</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028992209180486</v>
+        <v>0.9956012414753099</v>
       </c>
       <c r="D14">
-        <v>1.039105678456003</v>
+        <v>1.018961762728409</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.045143979379235</v>
+        <v>1.0165333948295</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038379388627276</v>
+        <v>1.04612655016425</v>
       </c>
       <c r="J14">
-        <v>1.035611124088297</v>
+        <v>1.025194083253853</v>
       </c>
       <c r="K14">
-        <v>1.042665014865374</v>
+        <v>1.033551245453225</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.048681195959187</v>
+        <v>1.031166677944659</v>
       </c>
       <c r="N14">
-        <v>1.015877429295355</v>
+        <v>1.012370181502104</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029074394752004</v>
+        <v>0.9960395264028544</v>
       </c>
       <c r="D15">
-        <v>1.039172523448632</v>
+        <v>1.019303319916785</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.045228791813259</v>
+        <v>1.016949312517308</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038400443240382</v>
+        <v>1.046276371032378</v>
       </c>
       <c r="J15">
-        <v>1.035655579328804</v>
+        <v>1.025425906551039</v>
       </c>
       <c r="K15">
-        <v>1.042712182582272</v>
+        <v>1.033800201236615</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.048746397762761</v>
+        <v>1.031488322277943</v>
       </c>
       <c r="N15">
-        <v>1.01589211105051</v>
+        <v>1.012446724892131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029552922464434</v>
+        <v>0.9985695094473079</v>
       </c>
       <c r="D16">
-        <v>1.039561723443904</v>
+        <v>1.021276157920502</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.045722751858204</v>
+        <v>1.019352364434492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038522560105412</v>
+        <v>1.047137662794009</v>
       </c>
       <c r="J16">
-        <v>1.035914239107319</v>
+        <v>1.02676303060952</v>
       </c>
       <c r="K16">
-        <v>1.042986590118016</v>
+        <v>1.035236022542412</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.049125967859071</v>
+        <v>1.033345102938419</v>
       </c>
       <c r="N16">
-        <v>1.015977533548364</v>
+        <v>1.012888235869835</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029853240423146</v>
+        <v>1.000138361671203</v>
       </c>
       <c r="D17">
-        <v>1.039805974109423</v>
+        <v>1.022500546528816</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.046032875684806</v>
+        <v>1.020844393435856</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038598781295807</v>
+        <v>1.0476686067343</v>
       </c>
       <c r="J17">
-        <v>1.036076410187602</v>
+        <v>1.027591223882357</v>
       </c>
       <c r="K17">
-        <v>1.043158603972701</v>
+        <v>1.036125235341227</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.049364120102594</v>
+        <v>1.034496556051118</v>
       </c>
       <c r="N17">
-        <v>1.016031088581152</v>
+        <v>1.013161717017095</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030028464345627</v>
+        <v>1.001047055562373</v>
       </c>
       <c r="D18">
-        <v>1.039948482500179</v>
+        <v>1.023210077035966</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.046213864360469</v>
+        <v>1.021709258721661</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038643102788402</v>
+        <v>1.047974987893044</v>
       </c>
       <c r="J18">
-        <v>1.036170972823939</v>
+        <v>1.02807056467544</v>
       </c>
       <c r="K18">
-        <v>1.043258894934585</v>
+        <v>1.036639850227404</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.049503050596626</v>
+        <v>1.035163496148636</v>
       </c>
       <c r="N18">
-        <v>1.016062316006443</v>
+        <v>1.01332000768273</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030088220201107</v>
+        <v>1.001355826155961</v>
       </c>
       <c r="D19">
-        <v>1.039997081092975</v>
+        <v>1.02345123115995</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.046275593497759</v>
+        <v>1.022003248814271</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038658192001982</v>
+        <v>1.048078899220805</v>
       </c>
       <c r="J19">
-        <v>1.036203211279704</v>
+        <v>1.028233381376535</v>
       </c>
       <c r="K19">
-        <v>1.043293084425921</v>
+        <v>1.036814640934839</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.049550425697884</v>
+        <v>1.035390119889596</v>
       </c>
       <c r="N19">
-        <v>1.016072961987823</v>
+        <v>1.013373774858261</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029821013597635</v>
+        <v>0.9999707029640125</v>
       </c>
       <c r="D20">
-        <v>1.039779764058482</v>
+        <v>1.02236966267902</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.045999592109534</v>
+        <v>1.020684875059723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038590617651771</v>
+        <v>1.047611984891526</v>
       </c>
       <c r="J20">
-        <v>1.03605901375703</v>
+        <v>1.027502754009517</v>
       </c>
       <c r="K20">
-        <v>1.043140152828277</v>
+        <v>1.036030251573637</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.049338566506286</v>
+        <v>1.034373502504892</v>
       </c>
       <c r="N20">
-        <v>1.016025343697183</v>
+        <v>1.013132502429458</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028952932406918</v>
+        <v>0.9953913905629046</v>
       </c>
       <c r="D21">
-        <v>1.039073732884513</v>
+        <v>1.018798247232875</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.045103449647057</v>
+        <v>1.016334292637727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038369318185002</v>
+        <v>1.046054753332714</v>
       </c>
       <c r="J21">
-        <v>1.035589875561152</v>
+        <v>1.025083067585877</v>
       </c>
       <c r="K21">
-        <v>1.042642469230139</v>
+        <v>1.033432023313268</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.048650034570395</v>
+        <v>1.031012676838071</v>
       </c>
       <c r="N21">
-        <v>1.015870411732097</v>
+        <v>1.012333526720622</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02840763005354</v>
+        <v>0.9924514259116439</v>
       </c>
       <c r="D22">
-        <v>1.038630206677987</v>
+        <v>1.016508955252621</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.044540912973241</v>
+        <v>1.013547571367948</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038228949731917</v>
+        <v>1.045044754410078</v>
       </c>
       <c r="J22">
-        <v>1.035294657153773</v>
+        <v>1.023526546404519</v>
       </c>
       <c r="K22">
-        <v>1.042329188936922</v>
+        <v>1.031760310590019</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.048217322364259</v>
+        <v>1.028855342305119</v>
       </c>
       <c r="N22">
-        <v>1.015772909903769</v>
+        <v>1.011819624652909</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028696657649901</v>
+        <v>0.9940158772611243</v>
       </c>
       <c r="D23">
-        <v>1.038865291307537</v>
+        <v>1.017726806731475</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.044839037947168</v>
+        <v>1.01502986149248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038303477885723</v>
+        <v>1.045583158187606</v>
       </c>
       <c r="J23">
-        <v>1.035451181536786</v>
+        <v>1.024355099635558</v>
       </c>
       <c r="K23">
-        <v>1.042495299047374</v>
+        <v>1.032650210961937</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.04844669220804</v>
+        <v>1.030003283871692</v>
       </c>
       <c r="N23">
-        <v>1.015824605848244</v>
+        <v>1.012093174516836</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029835575347697</v>
+        <v>1.000046480434363</v>
       </c>
       <c r="D24">
-        <v>1.039791607125531</v>
+        <v>1.022428817758518</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.046014631219848</v>
+        <v>1.020756971239438</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03859430687464</v>
+        <v>1.047637580080939</v>
       </c>
       <c r="J24">
-        <v>1.036066874544985</v>
+        <v>1.027542741248695</v>
       </c>
       <c r="K24">
-        <v>1.043148490235586</v>
+        <v>1.036073183142096</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.049350113013957</v>
+        <v>1.03442911955649</v>
       </c>
       <c r="N24">
-        <v>1.016027939594903</v>
+        <v>1.013145707028391</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031159319599789</v>
+        <v>1.006795363764375</v>
       </c>
       <c r="D25">
-        <v>1.040868150736175</v>
+        <v>1.027704344791656</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.047382705712767</v>
+        <v>1.027191898943639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038926418893279</v>
+        <v>1.049892281476014</v>
       </c>
       <c r="J25">
-        <v>1.03678020934378</v>
+        <v>1.031096181165263</v>
       </c>
       <c r="K25">
-        <v>1.043904836985776</v>
+        <v>1.039887287537734</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.050399273295888</v>
+        <v>1.039382266936624</v>
       </c>
       <c r="N25">
-        <v>1.016263490695101</v>
+        <v>1.014319233358351</v>
       </c>
     </row>
   </sheetData>
